--- a/biology/Botanique/Cymbidieae/Cymbidieae.xlsx
+++ b/biology/Botanique/Cymbidieae/Cymbidieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Cymbidieae est une tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
 La classification phylogénétique actuelle sépare cette tribu en cinq sous-tribus qui regroupent 22 genres d'Orchidées alors que la classification précédente mentionnait huit sous-tribus. Les sous-tribus des Acriopsidinae, des Adrorhizinae, des Cyrtopodiinae et des Thecostelinae ont été supprimées, la sous-tribu des Cymbidiinae étant de nouveau reconnue. Certains genres  ont été déplacés (Acriopsis, Cyrtopodium, Galeandra, Grobya…) et d'autres (Adrorhizon…) sont considérés comme étant de placement incertain (Epidendroideae incertae sedis).
@@ -514,25 +526,166 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bromheadiinae Dressler 1990.
-Bromheadia
-Catasetinae Schltr. 1926.
-Catasetum
+          <t>Bromheadiinae Dressler 1990.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bromheadia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cymbidieae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbidieae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon le NCBI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Catasetinae Schltr. 1926.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catasetum
 Clowesia
 Cycnoches
 Cyrtopodium (Cyrtopodiinae précédemment)
 Dressleria
 Galeandra (Cyrtopodiinae précédemment)
 Grobya (Cyrtopodiinae précédemment)
-Mormodes
-Cymbidiinae Benth. 1881.
-Cymbidium
+Mormodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cymbidieae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbidieae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon le NCBI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cymbidiinae Benth. 1881.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cymbidium
 Grammatophyllum
-Graphorchis
-Eriopsidinae  Szlach. 1995.
-Eriopsis Lindl. (1847).
-Eulophiinae Benth. 1881.
-Acriopsis (Acriopsidinae selon classification de Dressler 1979.)
+Graphorchis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cymbidieae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbidieae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon le NCBI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Eriopsidinae  Szlach. 1995.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eriopsis Lindl. (1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cymbidieae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbidieae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon le NCBI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eulophiinae Benth. 1881.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acriopsis (Acriopsidinae selon classification de Dressler 1979.)
 Acrolophia
 Ansellia (Cyrtopodiinae précédemment)
 Cymbidiella (Cyrtopodiinae précédemment)
@@ -547,33 +700,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Cymbidieae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cymbidieae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sous-tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon les chercheurs de l'université de Floride, Kenneth M. Cameron, Mark W. Chase, W. Mark Whitten, Paul J. Kores, David C. Jarrell, Victor A. Albert, Tomohisa Yukawa, Harold G. Hills et Douglas H. Goldman, cette tribu inclut les sous-tribus suivantes[1]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon les chercheurs de l'université de Floride, Kenneth M. Cameron, Mark W. Chase, W. Mark Whitten, Paul J. Kores, David C. Jarrell, Victor A. Albert, Tomohisa Yukawa, Harold G. Hills et Douglas H. Goldman, cette tribu inclut les sous-tribus suivantes:
 Catasetinae
 Coeliopsidinae
 Cymbidiinae
